--- a/competitionmarkets/loecker_barkai/LBdf_data.xlsx
+++ b/competitionmarkets/loecker_barkai/LBdf_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Documents/GitHub/bfh-textbook/competitionmarkets/loecker_barkai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC36F78B-9DA5-514E-84B0-D6A26F846A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360D0D6-E666-E94E-90F5-C24868EFA37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -874,97 +874,31 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>1983.0873239436601</v>
-      </c>
-      <c r="B54">
-        <v>0.193</v>
-      </c>
-      <c r="C54">
-        <v>5.0649350649350701E-2</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>1984.0478873239399</v>
-      </c>
-      <c r="B55">
-        <v>0.21</v>
-      </c>
-      <c r="C55">
-        <v>4.67532467532471E-3</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>1987.1915492957701</v>
-      </c>
-      <c r="B56">
-        <v>0.27960000000000002</v>
-      </c>
-      <c r="C56">
-        <v>5.61038961038961E-2</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>1993.3915492957699</v>
-      </c>
-      <c r="B57">
-        <v>0.34</v>
-      </c>
-      <c r="C57">
-        <v>7.3246753246753296E-2</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>1995.4</v>
-      </c>
-      <c r="B58">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C58">
-        <v>9.1168831168831205E-2</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>1996.44788732394</v>
-      </c>
-      <c r="B59">
-        <v>0.375</v>
-      </c>
-      <c r="C59">
-        <v>9.1948051948051904E-2</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>1998.54366197183</v>
-      </c>
-      <c r="B60">
-        <v>0.3936267</v>
-      </c>
-      <c r="C60">
-        <v>7.5584415584415601E-2</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>2013.0394366197199</v>
-      </c>
-      <c r="C61">
-        <v>0.16675324675324699</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C62">
-        <v>0.15038961038960999</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/competitionmarkets/loecker_barkai/LBdf_data.xlsx
+++ b/competitionmarkets/loecker_barkai/LBdf_data.xlsx
@@ -883,9 +883,7 @@
       <c r="A54" t="n">
         <v>1983.08732394366</v>
       </c>
-      <c r="B54" t="n">
-        <v>0.193</v>
-      </c>
+      <c r="B54"/>
       <c r="C54" t="n">
         <v>0.0506493506493507</v>
       </c>
@@ -894,9 +892,7 @@
       <c r="A55" t="n">
         <v>1984.04788732394</v>
       </c>
-      <c r="B55" t="n">
-        <v>0.21</v>
-      </c>
+      <c r="B55"/>
       <c r="C55" t="n">
         <v>0.00467532467532471</v>
       </c>
@@ -905,9 +901,7 @@
       <c r="A56" t="n">
         <v>1987.19154929577</v>
       </c>
-      <c r="B56" t="n">
-        <v>0.2796</v>
-      </c>
+      <c r="B56"/>
       <c r="C56" t="n">
         <v>0.0561038961038961</v>
       </c>
@@ -916,9 +910,7 @@
       <c r="A57" t="n">
         <v>1993.39154929577</v>
       </c>
-      <c r="B57" t="n">
-        <v>0.34</v>
-      </c>
+      <c r="B57"/>
       <c r="C57" t="n">
         <v>0.0732467532467533</v>
       </c>
@@ -927,9 +919,7 @@
       <c r="A58" t="n">
         <v>1995.4</v>
       </c>
-      <c r="B58" t="n">
-        <v>0.365</v>
-      </c>
+      <c r="B58"/>
       <c r="C58" t="n">
         <v>0.0911688311688312</v>
       </c>
@@ -938,9 +928,7 @@
       <c r="A59" t="n">
         <v>1996.44788732394</v>
       </c>
-      <c r="B59" t="n">
-        <v>0.375</v>
-      </c>
+      <c r="B59"/>
       <c r="C59" t="n">
         <v>0.0919480519480519</v>
       </c>
@@ -949,9 +937,7 @@
       <c r="A60" t="n">
         <v>1998.54366197183</v>
       </c>
-      <c r="B60" t="n">
-        <v>0.3936267</v>
-      </c>
+      <c r="B60"/>
       <c r="C60" t="n">
         <v>0.0755844155844156</v>
       </c>
